--- a/biology/Médecine/Trichrome_de_Gomori/Trichrome_de_Gomori.xlsx
+++ b/biology/Médecine/Trichrome_de_Gomori/Trichrome_de_Gomori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coloration trichrome de Gömöri est une coloration histologique utilisée sur le tissu musculaire[1],[2]. Elle peut être utilisée pour dépister certaines formes de myopathie mitochondriale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration trichrome de Gömöri est une coloration histologique utilisée sur le tissu musculaire,. Elle peut être utilisée pour dépister certaines formes de myopathie mitochondriale.
 Elle porte le nom de György Gömöri, qui l'a développé en 1950. 
 </t>
         </is>
